--- a/ARCHIVE/deployment/Omaha_Cal_Info_CE09OSPM_00006.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_CE09OSPM_00006.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaesm/Desktop/convert/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
     <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="66">
   <si>
     <t>Mooring OOIBARCODE</t>
   </si>
@@ -53,9 +66,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>CE09OSPM</t>
-  </si>
-  <si>
     <t>Mooring Serial Number</t>
   </si>
   <si>
@@ -71,10 +81,55 @@
     <t>Calibration Cofficient Value</t>
   </si>
   <si>
+    <t>No Calibration Coefficient</t>
+  </si>
+  <si>
+    <t>CC_dark_counts_volume_scatter</t>
+  </si>
+  <si>
+    <t>CC_scale_factor_volume_scatter</t>
+  </si>
+  <si>
+    <t>CC_dark_counts_chlorophyll_a</t>
+  </si>
+  <si>
+    <t>CC_scale_factor_chlorophyll_a</t>
+  </si>
+  <si>
+    <t>CC_dark_counts_cdom</t>
+  </si>
+  <si>
+    <t>CC_scale_factor_cdom</t>
+  </si>
+  <si>
+    <t>CC_scattering_angle</t>
+  </si>
+  <si>
+    <t>CC_measurement_wavelength</t>
+  </si>
+  <si>
+    <t>CC_angular_resolution</t>
+  </si>
+  <si>
+    <t>CC_depolarization_ratio</t>
+  </si>
+  <si>
+    <t>AT37-03</t>
+  </si>
+  <si>
     <t>CE09OSPM-WFP01-00-WFPENG000</t>
   </si>
   <si>
-    <t>No Calibration Coefficient</t>
+    <t>CGMCE-09OSPM-00006</t>
+  </si>
+  <si>
+    <t>CE09OSPM-00006</t>
+  </si>
+  <si>
+    <t>CGVEH-CWFPCE-99104</t>
+  </si>
+  <si>
+    <t>ML12991-04</t>
   </si>
   <si>
     <t>profiler S/N</t>
@@ -83,6 +138,12 @@
     <t>CE09OSPM-WFP01-03-CTDPFK000</t>
   </si>
   <si>
+    <t>CGINS-CTDPFK-00112</t>
+  </si>
+  <si>
+    <t>52-0112</t>
+  </si>
+  <si>
     <t>CC_latitude</t>
   </si>
   <si>
@@ -92,6 +153,12 @@
     <t>CE09OSPM-WFP01-02-DOFSTK000</t>
   </si>
   <si>
+    <t>CGINS-DOFSTK-02498</t>
+  </si>
+  <si>
+    <t>43-2498</t>
+  </si>
+  <si>
     <t>CC_oxygen_signal_slope</t>
   </si>
   <si>
@@ -116,40 +183,16 @@
     <t>CE09OSPM-WFP01-04-FLORTK000</t>
   </si>
   <si>
-    <t>CC_angular_resolution</t>
+    <t>CGINS-FLORTK-01032</t>
   </si>
   <si>
     <t>chi factor</t>
   </si>
   <si>
-    <t>CC_scattering_angle</t>
-  </si>
-  <si>
-    <t>CC_measurement_wavelength</t>
-  </si>
-  <si>
-    <t>CC_depolarization_ratio</t>
-  </si>
-  <si>
-    <t>CC_dark_counts_volume_scatter</t>
-  </si>
-  <si>
-    <t>CC_scale_factor_volume_scatter</t>
-  </si>
-  <si>
-    <t>CC_dark_counts_cdom</t>
-  </si>
-  <si>
-    <t>CC_scale_factor_cdom</t>
-  </si>
-  <si>
-    <t>CC_dark_counts_chlorophyll_a</t>
-  </si>
-  <si>
-    <t>CC_scale_factor_chlorophyll_a</t>
-  </si>
-  <si>
     <t>CE09OSPM-WFP01-05-PARADK000</t>
+  </si>
+  <si>
+    <t>CGINS-PARADK-20448</t>
   </si>
   <si>
     <t>CC_dark_offset</t>
@@ -190,30 +233,24 @@
     </r>
   </si>
   <si>
+    <t>CGINS-VEL3DK-00017</t>
+  </si>
+  <si>
     <t>CE09OSPM-SBS01-00-STCENG000</t>
   </si>
   <si>
-    <t>End Cap S/N</t>
-  </si>
-  <si>
-    <t>CE09OSPM-00006</t>
-  </si>
-  <si>
-    <t>AT37-03</t>
-  </si>
-  <si>
-    <t>ML12991-04</t>
-  </si>
-  <si>
-    <t>52-0112</t>
-  </si>
-  <si>
-    <t>43-2498</t>
+    <t>CGCON-SBS01-00003</t>
   </si>
   <si>
     <t xml:space="preserve">SWE 003-G
 SWE 003-G
 </t>
+  </si>
+  <si>
+    <t>End Cap S/N</t>
+  </si>
+  <si>
+    <t>CE09OSPM</t>
   </si>
 </sst>
 </file>
@@ -221,13 +258,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000000E+00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -235,21 +279,22 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -266,6 +311,17 @@
       <sz val="11"/>
       <color indexed="13"/>
       <name val="DejaVu Sans Mono"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -319,50 +375,20 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right style="medium">
-        <color indexed="8"/>
+      <right style="thin">
+        <color indexed="11"/>
       </right>
-      <top style="medium">
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="hair">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -370,8 +396,23 @@
       <top style="thin">
         <color indexed="11"/>
       </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -395,38 +436,10 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
         <color indexed="11"/>
       </right>
-      <top style="thin">
-        <color indexed="11"/>
+      <top style="hair">
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -434,17 +447,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="11"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,129 +491,154 @@
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -597,7 +655,7 @@
       <rgbColor rgb="FFAAAAAA"/>
       <rgbColor rgb="FFFDE9D9"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="FFCCC0D9"/>
       <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00800000"/>
       <rgbColor rgb="00008000"/>
@@ -802,9 +860,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -884,7 +942,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -912,10 +970,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1177,9 +1235,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
+              <a:alpha val="38000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1473,7 +1531,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1501,10 +1559,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1762,233 +1820,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="18.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="1" customWidth="1"/>
-    <col min="15" max="256" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="14.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
+    <col min="15" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" customHeight="1">
+    <row r="1" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.7" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="M1" s="3"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="33">
         <v>6</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="34">
         <v>42635</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="35">
         <v>9.5833333333333326E-2</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="10">
+      <c r="G2" s="36"/>
+      <c r="H2" s="33">
         <v>46.851649999999999</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="33">
         <v>-124.98229000000001</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="33">
         <v>542</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="K2" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="37"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -1998,823 +2059,833 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV35"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="45.140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="20" customWidth="1"/>
-    <col min="12" max="256" width="8.85546875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="21" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="49.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="10" customWidth="1"/>
+    <col min="10" max="248" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="13">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="13">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="8">
+        <v>46.851649999999999</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="13">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="8">
+        <v>-124.98229000000001</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="13">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="8">
+        <v>46.851649999999999</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="8">
+        <v>-124.98229000000001</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13">
+        <v>6</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="20">
+        <v>3.2609000000000002E-4</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="13">
+        <v>6</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="21">
+        <v>-870.21</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="22">
+        <v>-2.8433E-3</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="13">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1.1818E-4</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="20">
+        <v>-1.6541E-6</v>
+      </c>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="13">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="21">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="13">
+        <v>6</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1032</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="13">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1032</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="8">
+        <v>124</v>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="13">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1032</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="8">
+        <v>700</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="13">
+        <v>6</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1032</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="8">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="13">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1032</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="H20" s="19">
+        <v>48</v>
+      </c>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="13">
         <v>6</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="30" t="s">
+      <c r="E21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1032</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="19">
+        <v>3.4139999999999998E-6</v>
+      </c>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="13">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1032</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="19">
+        <v>47</v>
+      </c>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="13">
+        <v>6</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1032</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="19">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="13">
+        <v>6</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1032</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="19">
+        <v>47</v>
+      </c>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="13">
+        <v>6</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1032</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="19">
+        <v>1.18E-2</v>
+      </c>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="13">
+        <v>6</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="29">
+      <c r="F27" s="13">
+        <v>20448</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="13">
         <v>6</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="E28" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="13">
+        <v>20448</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="24">
+        <v>9.8700000000000006E-18</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="13">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="23">
+        <v>100017</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="8">
         <v>46.851649999999999</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="29">
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="13">
         <v>6</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="E31" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="23">
+        <v>100017</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="8">
         <v>-124.98229000000001</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A8" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="29">
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="13">
         <v>6</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="7">
-        <v>46.851649999999999</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A9" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="29">
-        <v>6</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>-124.98229000000001</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="29">
-        <v>6</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="40">
-        <v>3.2609000000000002E-4</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A11" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="29">
-        <v>6</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="36">
-        <v>-870.21</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A12" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="29">
-        <v>6</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="41">
-        <v>-2.8433E-3</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A13" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="29">
-        <v>6</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="40">
-        <v>1.1818E-4</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A14" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="29">
-        <v>6</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="40">
-        <v>-1.6541E-6</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A15" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="29">
-        <v>6</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="36">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A17" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="29">
-        <v>6</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="29">
-        <v>1032</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A18" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="29">
-        <v>6</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="29">
-        <v>1032</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="7">
-        <v>124</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="29">
-        <v>6</v>
-      </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="29">
-        <v>1032</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>700</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A20" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="29">
-        <v>6</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="29">
-        <v>1032</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3.9E-2</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="29">
-        <v>6</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="29">
-        <v>1032</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="35">
-        <v>48</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="29">
-        <v>6</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="29">
-        <v>1032</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="35">
-        <v>3.4139999999999998E-6</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A23" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="29">
-        <v>6</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="29">
-        <v>1032</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="35">
-        <v>47</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="29">
-        <v>6</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="29">
-        <v>1032</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="35">
-        <v>7.2599999999999998E-2</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="29">
-        <v>6</v>
-      </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="29">
-        <v>1032</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="35">
-        <v>47</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A26" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="29">
-        <v>6</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="29">
-        <v>1032</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="35">
-        <v>1.18E-2</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A28" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="29">
-        <v>6</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="29">
-        <v>20448</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="35">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A29" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="29">
-        <v>6</v>
-      </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="29">
-        <v>20448</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="38">
-        <v>9.8700000000000006E-18</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A31" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="29">
-        <v>6</v>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="37">
-        <v>100017</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="7">
-        <v>46.851649999999999</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A32" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="29">
-        <v>6</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="37">
-        <v>100017</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="7">
-        <v>-124.98229000000001</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A34" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="29">
-        <v>6</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="E33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="11" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
